--- a/biology/Botanique/Gigartina_sitchensis/Gigartina_sitchensis.xlsx
+++ b/biology/Botanique/Gigartina_sitchensis/Gigartina_sitchensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mastocarpus papillatus est une espèce d'algues rouges, de la famille des Gigartinaceae, que l'on trouve sur la côte ouest des États-Unis, de la Californie à l'Alaska. Elle est utilisée pour traiter l'herpès[2][source insuffisante][réf. nécessaire]. Elle est aussi bénéfique, via ingestion orale, pour traiter des problèmes de peau comme le psoriasis ou l'eczéma.[réf. nécessaire] 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mastocarpus papillatus est une espèce d'algues rouges, de la famille des Gigartinaceae, que l'on trouve sur la côte ouest des États-Unis, de la Californie à l'Alaska. Elle est utilisée pour traiter l'herpès[source insuffisante][réf. nécessaire]. Elle est aussi bénéfique, via ingestion orale, pour traiter des problèmes de peau comme le psoriasis ou l'eczéma.[réf. nécessaire] 
 </t>
         </is>
       </c>
@@ -511,20 +523,22 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cette espèce a pour synonymes : 
 homotypiques :
-Sphaerococcus papillatus C.Agardh 1821[1]
-Iridaea papillata (C.Agardh) Greville 1830[1]
-Gigartina papillata (C.Agardh) J.Agardh 1846[1]
+Sphaerococcus papillatus C.Agardh 1821
+Iridaea papillata (C.Agardh) Greville 1830
+Gigartina papillata (C.Agardh) J.Agardh 1846
 hétérotypiques :
-Chondrus mamillosus var. sitchensis Ruprecht 1850[1]
-Gigartina obovata J.Agardh 1899[1]
-Gigartina sitchensis (Ruprecht) Yendo 1916[1]
-Petrocelis franciscana Setchell &amp; N.L.Gardner 1917[1]
-Gigartina kuetzingii Setchell &amp; N.L.Gardner 1933[1]
-Gigartina papillata var. obovata (J.Agardh) M.S.Doty 1947[1]</t>
+Chondrus mamillosus var. sitchensis Ruprecht 1850
+Gigartina obovata J.Agardh 1899
+Gigartina sitchensis (Ruprecht) Yendo 1916
+Petrocelis franciscana Setchell &amp; N.L.Gardner 1917
+Gigartina kuetzingii Setchell &amp; N.L.Gardner 1933
+Gigartina papillata var. obovata (J.Agardh) M.S.Doty 1947</t>
         </is>
       </c>
     </row>
